--- a/Analisi_vendite/Abbigliamento_READY.xlsx
+++ b/Analisi_vendite/Abbigliamento_READY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBook/Documents/University of Milan/Progetto Micro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_vendite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D2E4B-660F-8C4F-B4B3-FACCC54E6480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2728D7F7-202D-499F-84AA-B48B816C1565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="940" windowWidth="25040" windowHeight="13980" xr2:uid="{702E22C6-A454-1D4D-A7E3-B46B5FB885FD}"/>
+    <workbookView xWindow="1065" yWindow="1020" windowWidth="28185" windowHeight="15600" xr2:uid="{702E22C6-A454-1D4D-A7E3-B46B5FB885FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -407,16 +407,16 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,9 +436,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43101</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>94.4</v>
@@ -456,9 +456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43132</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>92.1</v>
@@ -476,9 +476,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43160</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>109.6</v>
@@ -496,9 +496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43191</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>94.6</v>
@@ -516,9 +516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43221</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>102.9</v>
@@ -536,9 +536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43252</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>102.8</v>
@@ -556,9 +556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43282</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>104.8</v>
@@ -576,9 +576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43313</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>104.7</v>
@@ -596,9 +596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43344</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>101</v>
@@ -616,9 +616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43374</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>104.4</v>
@@ -636,9 +636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43405</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -656,9 +656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43435</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>119.2</v>
@@ -676,9 +676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43466</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>96.6</v>
@@ -696,9 +696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43497</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>92.2</v>
@@ -716,9 +716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43525</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>102.4</v>
@@ -736,9 +736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43556</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>103</v>
@@ -756,9 +756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43586</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>101.8</v>
@@ -776,9 +776,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43617</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>103.4</v>
@@ -796,9 +796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43647</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>108.2</v>
@@ -816,9 +816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43678</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>105.9</v>
@@ -836,9 +836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43709</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>100.7</v>
@@ -856,9 +856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43739</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>105.7</v>
@@ -876,9 +876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43770</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>102.1</v>
@@ -896,9 +896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43800</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>119.1</v>
@@ -916,9 +916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43831</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>98.5</v>
@@ -936,9 +936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43862</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>100.2</v>
@@ -956,9 +956,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43891</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>108.4</v>
@@ -976,9 +976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43922</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>108.1</v>
@@ -996,9 +996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43952</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>105.9</v>
@@ -1016,9 +1016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43983</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>104.3</v>
@@ -1036,9 +1036,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44013</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>106.9</v>
@@ -1056,9 +1056,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44044</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>106.7</v>
@@ -1076,9 +1076,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44075</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>104.7</v>
@@ -1096,9 +1096,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44105</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>111.1</v>
@@ -1116,9 +1116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44136</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>104.2</v>
@@ -1136,9 +1136,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44166</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>127</v>
